--- a/teaching/traditional_assets/database/data/jersey/jersey_software_system_application.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_software_system_application.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0387</v>
+        <v>0.0382</v>
       </c>
       <c r="G2">
-        <v>-0.09794837855724688</v>
+        <v>-0.05825242718446601</v>
       </c>
       <c r="H2">
-        <v>-0.1278954334877565</v>
+        <v>-0.09461905545499423</v>
       </c>
       <c r="I2">
-        <v>-0.4286048448930484</v>
+        <v>-0.4506540879520104</v>
       </c>
       <c r="J2">
-        <v>-0.4286048448930484</v>
+        <v>-0.4506540879520104</v>
       </c>
       <c r="K2">
-        <v>-4.738</v>
+        <v>-3.04</v>
       </c>
       <c r="L2">
-        <v>-0.7839179351422898</v>
+        <v>-0.5002468323185782</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,67 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.461</v>
+        <v>0.761</v>
       </c>
       <c r="V2">
-        <v>0.04349056603773585</v>
+        <v>0.08218142548596112</v>
       </c>
       <c r="X2">
-        <v>0.1028639737067365</v>
+        <v>0.06741958831557099</v>
       </c>
       <c r="Z2">
-        <v>1.232353124139279</v>
+        <v>1.160369596637346</v>
       </c>
       <c r="AA2">
-        <v>-15.14786636941818</v>
+        <v>-23.52303259286495</v>
       </c>
       <c r="AB2">
-        <v>0.09626856091053762</v>
+        <v>0.06175033032659577</v>
       </c>
       <c r="AC2">
-        <v>-15.24413493032872</v>
+        <v>-23.58478292319155</v>
       </c>
       <c r="AD2">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AE2">
-        <v>0.06243841266792256</v>
+        <v>0.03812446242183323</v>
       </c>
       <c r="AF2">
-        <v>1.472438412667922</v>
+        <v>1.498124462421833</v>
       </c>
       <c r="AG2">
-        <v>1.011438412667922</v>
+        <v>0.737124462421833</v>
       </c>
       <c r="AH2">
-        <v>0.1219669434074606</v>
+        <v>0.1392551710713877</v>
       </c>
       <c r="AI2">
-        <v>0.2573096128755784</v>
+        <v>0.274576665679077</v>
       </c>
       <c r="AJ2">
-        <v>0.08710707293288114</v>
+        <v>0.07373364862992438</v>
       </c>
       <c r="AK2">
-        <v>0.1922361022477599</v>
+        <v>0.1569978534800354</v>
       </c>
       <c r="AL2">
-        <v>0.131</v>
+        <v>0.074</v>
       </c>
       <c r="AM2">
-        <v>0.131</v>
+        <v>0.074</v>
       </c>
       <c r="AN2">
-        <v>-2.447916666666667</v>
+        <v>-1.771844660194175</v>
       </c>
       <c r="AO2">
-        <v>-19.98473282442748</v>
+        <v>-37.45945945945947</v>
       </c>
       <c r="AP2">
-        <v>-1.755969466437365</v>
+        <v>-0.8945685223565936</v>
       </c>
       <c r="AQ2">
-        <v>-19.98473282442748</v>
+        <v>-37.45945945945947</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0387</v>
+        <v>0.0382</v>
       </c>
       <c r="G3">
-        <v>-0.09850249584026624</v>
+        <v>-0.05851239669421487</v>
       </c>
       <c r="H3">
-        <v>-0.1286189683860233</v>
+        <v>-0.09504132231404958</v>
       </c>
       <c r="I3">
-        <v>-0.1178036605657238</v>
+        <v>-0.1573553719008264</v>
       </c>
       <c r="J3">
-        <v>-0.1178036605657238</v>
+        <v>-0.1573553719008264</v>
       </c>
       <c r="K3">
-        <v>-0.948</v>
+        <v>-1.23</v>
       </c>
       <c r="L3">
-        <v>-0.1577371048252912</v>
+        <v>-0.2033057851239669</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.461</v>
+        <v>0.278</v>
       </c>
       <c r="V3">
-        <v>0.08764258555133081</v>
+        <v>0.05940170940170941</v>
       </c>
       <c r="W3">
-        <v>-0.253475935828877</v>
+        <v>-0.2894117647058824</v>
       </c>
       <c r="X3">
-        <v>0.1122723537086176</v>
+        <v>0.07480860850080252</v>
       </c>
       <c r="Y3">
-        <v>-0.3657482895374946</v>
+        <v>-0.3642203732066849</v>
       </c>
       <c r="Z3">
-        <v>1.24122263527468</v>
+        <v>1.163685324100789</v>
       </c>
       <c r="AA3">
-        <v>-0.1462205700123916</v>
+        <v>-0.1831121369494133</v>
       </c>
       <c r="AB3">
-        <v>0.09965445589443893</v>
+        <v>0.06327717120649604</v>
       </c>
       <c r="AC3">
-        <v>-0.2458750259068305</v>
+        <v>-0.2463893081559094</v>
       </c>
       <c r="AD3">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AG3">
-        <v>0.9489999999999998</v>
+        <v>1.162</v>
       </c>
       <c r="AH3">
-        <v>0.2113943028485757</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AI3">
-        <v>0.2491166077738516</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="AJ3">
-        <v>0.152842647769367</v>
+        <v>0.1989044847654913</v>
       </c>
       <c r="AK3">
-        <v>0.1825351029044047</v>
+        <v>0.2536010475774771</v>
       </c>
       <c r="AL3">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="AM3">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="AN3">
-        <v>-2.288961038961039</v>
+        <v>-1.664739884393064</v>
       </c>
       <c r="AO3">
-        <v>-9.833333333333334</v>
+        <v>-12.86486486486486</v>
       </c>
       <c r="AP3">
-        <v>-1.540584415584415</v>
+        <v>-1.343352601156069</v>
       </c>
       <c r="AQ3">
-        <v>-9.833333333333334</v>
+        <v>-12.86486486486486</v>
       </c>
     </row>
     <row r="4">
@@ -847,16 +847,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-55.36728478039954</v>
+        <v>-66.17129231423581</v>
       </c>
       <c r="J4">
-        <v>-55.36728478039954</v>
+        <v>-66.17129231423581</v>
       </c>
       <c r="K4">
-        <v>-3.79</v>
+        <v>-1.81</v>
       </c>
       <c r="L4">
-        <v>-111.4705882352941</v>
+        <v>-67.03703703703704</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,67 +880,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.1054585152838428</v>
       </c>
       <c r="X4">
-        <v>0.09345559370485543</v>
+        <v>0.06003056813033947</v>
       </c>
       <c r="Z4">
-        <v>0.5445365848877087</v>
+        <v>0.7082067073170732</v>
       </c>
       <c r="AA4">
-        <v>-30.14951216882397</v>
+        <v>-46.8629530487805</v>
       </c>
       <c r="AB4">
-        <v>0.09288266592663631</v>
+        <v>0.06022348944669551</v>
       </c>
       <c r="AC4">
-        <v>-30.24239483475061</v>
+        <v>-46.9231765382272</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AE4">
-        <v>0.06243841266792256</v>
+        <v>0.03812446242183323</v>
       </c>
       <c r="AF4">
-        <v>0.06243841266792256</v>
+        <v>0.05812446242183322</v>
       </c>
       <c r="AG4">
-        <v>0.06243841266792256</v>
+        <v>-0.4248755375781668</v>
       </c>
       <c r="AH4">
-        <v>0.01155745015464011</v>
+        <v>0.01253188932137519</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.09750390411038498</v>
       </c>
       <c r="AJ4">
-        <v>0.01155745015464011</v>
+        <v>-0.1022533840852811</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>-3.755823704989955</v>
       </c>
       <c r="AL4">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>-32.3728813559322</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="AP4">
-        <v>1.560960316698064</v>
-      </c>
-      <c r="AQ4">
-        <v>-32.3728813559322</v>
+        <v>-10.36281798971138</v>
       </c>
     </row>
   </sheetData>
